--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,9 +2035,469 @@
         <v>2026-02-07T01:01:03.901Z</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://www.militarytimes.com/news/your-navy/2026/02/07/uss-arleigh-burke-sailors-awarded-armed-forces-service-medal-for-12-day-war-operations/</v>
+      </c>
+      <c r="C72" t="str">
+        <v>USS Arleigh Burke sailors awarded Armed Forces Service Medal for ‘12-Day War’ operations</v>
+      </c>
+      <c r="D72" t="str">
+        <v>阿利·伯克号驱逐舰水兵因参与“12天战争”行动获得武装部队服役奖章，表彰其在冲突中的贡献。</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G72" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://www.zerohedge.com/geopolitical/cuba-ready-negotiate-trump-urges-dialing-down-pressure</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Cuba Ready To Negotiate With Trump, But Urges Dialing Down Of Pressure</v>
+      </c>
+      <c r="D73" t="str">
+        <v>古巴表示愿意与特朗普政府谈判，但呼吁美国减轻施压，寻求对话机会。</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G73" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.twz.com/news-features/russian-forces-in-ukraine-scramble-to-overcome-musks-starlink-restrictions</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Russian Forces In Ukraine Scramble To Overcome Musk’s Starlink Restrictions</v>
+      </c>
+      <c r="D74" t="str">
+        <v>俄罗斯军队正努力克服马斯克对乌克兰境内星链使用的限制，这影响了他们的通信和作战能力。</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G74" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://www.marketwatch.com/story/oil-markets-are-on-edge-over-elevated-risks-of-a-u-s-military-strike-against-iran-this-weekend-ead5d7d2?mod=mw_rss_topstories</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Oil markets are on edge over elevated risks of a U.S. military strike against Iran this weekend</v>
+      </c>
+      <c r="D75" t="str">
+        <v>美国可能军事打击伊朗的风险加剧，导致石油市场紧张，油价或将大幅波动。</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G75" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://www.militarytimes.com/global/asia-pacific/2026/02/06/first-us-warship-visit-to-chinese-built-port-in-cambodia-cements-new-drift-for-phnom-penh/</v>
+      </c>
+      <c r="C76" t="str">
+        <v>First US warship visit to Chinese-built port in Cambodia cements new drift for Phnom Penh</v>
+      </c>
+      <c r="D76" t="str">
+        <v>美国军舰首次访问中国在柬埔寨建造的港口，标志着金边方面出现新的转变，可能影响地区力量平衡。</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G76" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/iran-says-talks-with-us-in-oman-were-good-start-will-continue</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Iran says talks with US in Oman were ‘good start’, will continue</v>
+      </c>
+      <c r="D77" t="str">
+        <v>伊朗称与美国在阿曼的会谈是“良好的开端”，并将继续进行，表明双方可能寻求外交途径。</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G77" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://cyprus-mail.com/2026/02/06/russian-intelligence-official-shot-and-wounded-in-moscow</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Russian intelligence official shot and wounded in Moscow</v>
+      </c>
+      <c r="D78" t="str">
+        <v>一名俄罗斯情报官员在莫斯科遭枪击受伤，具体原因和袭击者身份不明。</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G78" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://www.ft.com/content/34c80766-86c6-4637-bc0d-aca587ee8baf</v>
+      </c>
+      <c r="C79" t="str">
+        <v>EU pushes for full ban on services tied to Russia’s oil trade</v>
+      </c>
+      <c r="D79" t="str">
+        <v>欧盟寻求全面禁止与俄罗斯石油贸易相关的服务，旨在进一步削弱俄罗斯的石油收入。</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G79" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://www.rt.com/russia/632132-zelensky-criticize-ukraine-air-force/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Zelensky criticizes Ukrainian Air Force</v>
+      </c>
+      <c r="D80" t="str">
+        <v>泽连斯基公开批评乌克兰空军，原因未知，可能涉及战术或资源分配问题。</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G80" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://www.rt.com/news/632128-eu-theft-private-russian-cars/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C81" t="str">
+        <v>EU court approves state theft of private cars bought in Russia</v>
+      </c>
+      <c r="D81" t="str">
+        <v>欧盟法院批准成员国没收在俄罗斯购买的私家车，引发对财产权和法律公平性的担忧。</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G81" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/turkey-is-doing-its-best-to-prevent-us-iran-conflict-erdogan-says</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Turkey is doing its best to prevent US-Iran conflict, Erdogan says</v>
+      </c>
+      <c r="D82" t="str">
+        <v>埃尔多安表示土耳其正尽力阻止美国和伊朗之间的冲突。</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G82" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://in-cyprus.philenews.com/local/police-inform-military-bullets-larnaca-hospital-toilets/</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Authorities inform military over bullets found in Larnaca Hospital toilets</v>
+      </c>
+      <c r="D83" t="str">
+        <v>拉纳卡医院厕所发现子弹，当局已通知军方，原因和威胁程度未知。</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G83" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://cyprus-mail.com/2026/02/05/cyprus-represented-at-kuwait-talks-on-global-digital-cooperation</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Cyprus represented at Kuwait talks on digital prosperity</v>
+      </c>
+      <c r="D84" t="str">
+        <v>塞浦路斯参加科威特关于数字繁荣的会谈，旨在促进数字经济发展和合作。</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G84" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://www.militarytimes.com/news/your-military/2026/02/04/us-military-conducts-strikes-on-islamic-state-members-in-syria/</v>
+      </c>
+      <c r="C85" t="str">
+        <v>US military conducts strikes on Islamic State members in Syria</v>
+      </c>
+      <c r="D85" t="str">
+        <v>美军在叙利亚对伊斯兰国成员发动了袭击，旨在削弱该恐怖组织的力量。</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G85" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-04/us-military-hits-islamic-state-targets-in-syria-over-past-week</v>
+      </c>
+      <c r="C86" t="str">
+        <v>US Military Hits Islamic State Targets in Syria Over Past Week</v>
+      </c>
+      <c r="D86" t="str">
+        <v>美军过去一周在叙利亚打击了伊斯兰国目标，表明美国仍在关注该地区的反恐行动。</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G86" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/israel-suspends-evacuation-of-palestinians-via-rafah-crossing-red-crescent?traffic_source=rss</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Israeli attacks on Gaza kill 20 in one of deadliest days since ‘ceasefire’</v>
+      </c>
+      <c r="D87" t="str">
+        <v>以色列对加沙的袭击造成20人死亡，是“停火”以来最致命的一天，加剧了地区紧张局势。</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G87" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://www.aljazeera.com/news/2026/2/4/greece-woos-israel-for-joint-production-of-weapons-systems?traffic_source=rss</v>
+      </c>
+      <c r="C88" t="str">
+        <v>‘Heavily armed’: Greece, Israel boost military ties amid Gaza genocide</v>
+      </c>
+      <c r="D88" t="str">
+        <v>在加沙冲突背景下，希腊和以色列加强军事合作，提升两国国防能力。</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G88" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://www.theguardian.com/australia-news/2026/feb/04/israel-president-isaac-herzog-visit-labor-backbenchers</v>
+      </c>
+      <c r="C89" t="str">
+        <v>NSW Labor backbenchers to protest Israel president Isaac Herzog’s visit in defiance of premier</v>
+      </c>
+      <c r="D89" t="str">
+        <v>新南威尔士州工党后座议员将抗议以色列总统伊萨克·赫尔佐格的访问，无视州长的意愿。</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G89" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://in-cyprus.philenews.com/international/turkey-aggressively-pursues-blue-homeland-goals-amid-regional-shifts/</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Turkey aggressively pursues “Blue Homeland” goals amid regional shifts</v>
+      </c>
+      <c r="D90" t="str">
+        <v>土耳其在地缘政治变动中积极推行“蓝色家园”战略，可能加剧地区紧张。</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G90" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://cyprus-mail.com/2026/01/04/more-than-30000-tonnes-of-aid-delivered-to-gaza-through-cyprus-amalthea-plan</v>
+      </c>
+      <c r="C91" t="str">
+        <v>‘More than 30,000 tonnes’ of aid delivered to Gaza through Cyprus’ Amalthea plan</v>
+      </c>
+      <c r="D91" t="str">
+        <v>塞浦路斯Amalthea计划已向加沙运送超过3万吨援助物资，旨在缓解当地人道主义危机。</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G91" t="str">
+        <v>2026-02-07T03:59:10.746Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2495,9 +2495,32 @@
         <v>2026-02-07T03:59:10.746Z</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://www.aljazeera.com/features/2026/2/7/israels-war-on-gaza-decimated-transport-and-even-made-walking-perilous?traffic_source=rss</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Israel’s war on Gaza decimated transport and even made walking perilous</v>
+      </c>
+      <c r="D92" t="str">
+        <v>加沙战争摧毁了交通运输，甚至使步行都变得危险，严重影响了当地居民的日常生活和行动。</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G92" t="str">
+        <v>2026-02-07T05:03:33.461Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2518,9 +2518,101 @@
         <v>2026-02-07T05:03:33.461Z</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://www.bloomberg.com/news/articles/2026-02-07/zelenskiy-says-us-looks-for-deal-ending-russia-s-war-by-june</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Zelenskiy Says US Looks For Deal Ending Russia’s War by June</v>
+      </c>
+      <c r="D93" t="str">
+        <v>泽连斯基表示，美国寻求在六月前达成结束俄乌战争的协议。</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G93" t="str">
+        <v>2026-02-07T10:14:34.072Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://focustaiwan.tw/politics/202602070005</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Self-help Taiwan's best protection: European lawmakers</v>
+      </c>
+      <c r="D94" t="str">
+        <v>欧洲议员表示，台湾自立自强是其抵御中国威胁的最佳保障，呼吁欧盟加强与台湾的合作。</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G94" t="str">
+        <v>2026-02-07T10:14:34.072Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://www.scmp.com/news/world/russia-central-asia/article/3342758/russia-launches-massive-attack-ukraine-power-grid-despite-ongoing-us-led-peace-talks?utm_source=rss_feed</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Russia launches ‘massive attack’ on Ukraine power grid despite ongoing US-led peace talks</v>
+      </c>
+      <c r="D95" t="str">
+        <v>俄罗斯对乌克兰电网发动大规模袭击，尽管美国主导的和平谈判正在进行中，这加剧了冲突并可能破坏外交努力。</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G95" t="str">
+        <v>2026-02-07T10:14:34.072Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B96" t="str">
+        <v>https://www.navalnews.com/naval-news/2026/02/french-amphibious-warship-frigate-to-join-balikatan-2026/</v>
+      </c>
+      <c r="C96" t="str">
+        <v>French Amphibious Warship, Frigate to Join Balikatan 2026</v>
+      </c>
+      <c r="D96" t="str">
+        <v>法国两栖战舰和护卫舰将参加2026年“肩并肩”演习，表明法国加强了在印太地区的军事存在和与菲律宾的合作。</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G96" t="str">
+        <v>2026-02-07T10:14:34.072Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G96"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,9 +2610,354 @@
         <v>2026-02-07T10:14:34.072Z</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Gold - US Dollar - Interest Rates</v>
+      </c>
+      <c r="B97" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/stocks-reel-as-ai-fears-dominate-market-action</v>
+      </c>
+      <c r="C97" t="str">
+        <v xml:space="preserve">Stocks reel as AI fears dominate market action </v>
+      </c>
+      <c r="D97" t="str">
+        <v>人工智能发展引发市场担忧，导致股市下跌，投资者情绪受挫。</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G97" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>MacroEco-China</v>
+      </c>
+      <c r="B98" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/us-india-unveil-interim-trade-framework-move-closer-to-broad-pact</v>
+      </c>
+      <c r="C98" t="str">
+        <v>US, India unveil interim trade framework, move closer to broad pact</v>
+      </c>
+      <c r="D98" t="str">
+        <v>美国和印度公布临时贸易框架，为达成更广泛的协议铺平道路，旨在加强双边经济关系。</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G98" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>MacroEco-US</v>
+      </c>
+      <c r="B99" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/us-india-unveil-interim-trade-framework-move-closer-to-broad-pact</v>
+      </c>
+      <c r="C99" t="str">
+        <v>US, India unveil interim trade framework, move closer to broad pact</v>
+      </c>
+      <c r="D99" t="str">
+        <v>美国和印度公布临时贸易框架，为达成更广泛的协议奠定基础，旨在加强双边经济关系。</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G99" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B100" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/us-india-unveil-interim-trade-framework-move-closer-to-broad-pact</v>
+      </c>
+      <c r="C100" t="str">
+        <v>US, India unveil interim trade framework, move closer to broad pact</v>
+      </c>
+      <c r="D100" t="str">
+        <v>美国和印度公布临时贸易框架，为达成更广泛的协议铺平道路，旨在加强双边经济关系。</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G100" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>tech</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://www.zerohedge.com/ai/why-desantis-believes-ai-needs-tight-regulation-now</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Why DeSantis Believes AI Needs Tight Regulation Now</v>
+      </c>
+      <c r="D101" t="str">
+        <v>佛州州长德桑蒂斯认为人工智能发展迅速，需要立即进行严格监管，以应对潜在风险。</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G101" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B102" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/von-allmen-wins-first-gold-of-the-games-in-downhill</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Von Allmen wins first gold of the Games in downhill</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Von Allmen 在比赛中赢得首枚金牌，为本届赛事开了个好头。</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G102" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B103" t="str">
+        <v>https://www.wsj.com/finance/commodities-futures/exchange-giant-cme-raises-gold-silver-margins-as-volatility-persists-c9281fb7?siteid=yhoof2&amp;yptr=yahoo</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Exchange Giant CME Raises Gold, Silver Margins as Volatility Persists</v>
+      </c>
+      <c r="D103" t="str">
+        <v>CME集团因市场波动持续，上调黄金和白银保证金，或影响交易成本和市场参与度。</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G103" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B104" t="str">
+        <v>https://finance.yahoo.com/news/tether-150m-deal-gold-com-095338705.html</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Tether $150M Deal With Gold.com: Stablecoin Giant Wants to Own the Supply Chain</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Tether斥资1.5亿美元收购Gold.com股份，旨在控制黄金供应链，实现稳定币与实物资产的更紧密结合。</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G104" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B105" t="str">
+        <v>https://finance.yahoo.com/personal-finance/investing/article/gold-price-today-friday-february-6-gold-volatility-continues-prompting-another-margin-increase-130036592.html</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Gold price today, Friday, February 6: Gold volatility continues, prompting another margin increase</v>
+      </c>
+      <c r="D105" t="str">
+        <v>金价波动持续，导致保证金再次提高，反映市场风险增加，投资者需谨慎。</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G105" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B106" t="str">
+        <v>https://www.barrons.com/livecoverage/stock-market-news-today-020626/card/gold-holds-below-5-000-as-volatility-remains-high-exchange-operator-cme-hikes-margins-PFIGvPN624EqSSLow8hT?siteid=yhoof2&amp;yptr=yahoo</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Gold Holds Below $5,000 as Volatility Remains High, Exchange Operator CME Hikes Margins</v>
+      </c>
+      <c r="D106" t="str">
+        <v>金价维持在5000美元以下，波动性高企，芝商所提高保证金，反映市场风险。</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G106" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B107" t="str">
+        <v>https://finance.yahoo.com/news/resolute-mining-secures-permit-doropo-091700073.html</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Resolute Mining secures permit for Doropo Gold Project</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Resolute Mining 获得 Doropo 金矿项目许可，为其在科特迪瓦的黄金生产铺平道路。</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G107" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B108" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/tomba-and-compagnoni-share-honour-of-lighting-milan-cauldron</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Tomba and Compagnoni share honour of lighting Milan cauldron</v>
+      </c>
+      <c r="D108" t="str">
+        <v>滑雪传奇人物托姆巴和康帕尼奥尼共同点燃米兰奥运会圣火盆，象征着体育精神的传承与团结。</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G108" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B109" t="str">
+        <v>https://finance.yahoo.com/news/robert-kiyosaki-sells-bitcoin-gold-082248681.html</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Robert Kiyosaki Sells Bitcoin and Gold as Crypto Market Loses $750B</v>
+      </c>
+      <c r="D109" t="str">
+        <v>《富爸爸穷爸爸》作者罗伯特·清崎抛售比特币和黄金，因加密货币市场损失7500亿美元。</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G109" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B110" t="str">
+        <v>https://finance.yahoo.com/news/iron-ore-drops-below-100-024345794.html</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Iron Ore Drops Below $100 as Global Fundamentals ‘Remain Weak’</v>
+      </c>
+      <c r="D110" t="str">
+        <v>铁矿石价格跌破100美元，因全球基本面依然疲软，预示着钢铁需求可能下降。</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G110" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Commodity price fluctuations</v>
+      </c>
+      <c r="B111" t="str">
+        <v>https://finance.yahoo.com/news/cash-strapped-lebanon-finds-itself-080315796.html</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Cash-strapped Lebanon finds itself sitting on a gold mine, as precious metal prices surge</v>
+      </c>
+      <c r="D111" t="str">
+        <v>黎巴嫩面临经济危机，但金价飙升使其拥有潜在的黄金储备价值凸显，或可缓解部分困境。</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111" t="str">
+        <v>normal</v>
+      </c>
+      <c r="G111" t="str">
+        <v>2026-02-07T12:21:32.798Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G111"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2955,9 +2955,32 @@
         <v>2026-02-07T12:21:32.798Z</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B112" t="str">
+        <v>https://in-cyprus.philenews.com/international/sergey-tropin-former-russian-minister-death-moscow/</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Former Russian Deputy Justice Minister found dead in Moscow bathtub</v>
+      </c>
+      <c r="D112" t="str">
+        <v>俄罗斯前司法部副部长在莫斯科浴缸中被发现身亡，死因不明，引发关注。</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G112" t="str">
+        <v>2026-02-07T12:22:00.710Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G111"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G112"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2978,9 +2978,55 @@
         <v>2026-02-07T12:22:00.710Z</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B113" t="str">
+        <v>https://www.rt.com/russia/632124-meet-ukraines-national-heroes/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=RSS</v>
+      </c>
+      <c r="C113" t="str">
+        <v>They tortured, murdered, committed ethnic cleansing. Meet Ukraine’s ‘national heroes’</v>
+      </c>
+      <c r="D113" t="str">
+        <v>文章指控乌克兰的“民族英雄”犯有酷刑、谋杀和种族清洗罪行，引发对乌克兰历史叙事的质疑。</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G113" t="str">
+        <v>2026-02-07T14:15:30.191Z</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B114" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/as-american-as-chips-can-get-what-are-freedom-fries</v>
+      </c>
+      <c r="C114" t="str">
+        <v>As American as chips can get: what are freedom fries?</v>
+      </c>
+      <c r="D114" t="str">
+        <v>“自由薯条”是2003年因法国反对伊拉克战争，美国餐厅将“法式薯条”更名的政治象征，反映了当时的美法关系紧张。</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G114" t="str">
+        <v>2026-02-07T14:15:30.191Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G112"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G114"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3024,9 +3024,124 @@
         <v>2026-02-07T14:15:30.191Z</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B115" t="str">
+        <v>https://www.militarytimes.com/news/your-military/2026/02/07/the-us-armys-quiet-rotation-in-the-philippines/</v>
+      </c>
+      <c r="C115" t="str">
+        <v>The US Army’s quiet rotation in the Philippines</v>
+      </c>
+      <c r="D115" t="str">
+        <v>美军在菲律宾低调轮换部署，可能旨在加强在该地区的军事存在，应对潜在安全挑战。</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G115" t="str">
+        <v>2026-02-07T16:15:28.611Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B116" t="str">
+        <v>https://www.defensenews.com/news/your-military/2026/02/07/the-us-armys-quiet-rotation-in-the-philippines/</v>
+      </c>
+      <c r="C116" t="str">
+        <v>The US Army’s quiet rotation in the Philippines</v>
+      </c>
+      <c r="D116" t="str">
+        <v>美军在菲律宾低调轮换部署，可能旨在加强在该区域的军事存在，应对潜在威胁。</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G116" t="str">
+        <v>2026-02-07T16:15:28.611Z</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B117" t="str">
+        <v>https://cyprus-mail.com/2026/02/07/iran-says-it-will-strike-american-bases-if-us-attacks</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Iran says it will strike American bases if US attacks</v>
+      </c>
+      <c r="D117" t="str">
+        <v>伊朗警告若美国攻击，将打击美国基地，加剧地区紧张局势。</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G117" t="str">
+        <v>2026-02-07T16:15:28.611Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B118" t="str">
+        <v>https://in-cyprus.philenews.com/local/uk-deploys-f35-cyprus-akrotiri-iran-tensions/</v>
+      </c>
+      <c r="C118" t="str">
+        <v>UK deploys F-35 fighter jets to Cyprus amid Iran-US tension</v>
+      </c>
+      <c r="D118" t="str">
+        <v>英国在美国和伊朗关系紧张之际，向塞浦路斯部署F-35战斗机，可能旨在威慑或支持地区盟友。</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G118" t="str">
+        <v>2026-02-07T16:15:28.611Z</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B119" t="str">
+        <v>https://www.scmp.com/news/china/military/article/3342774/black-hawk-drone-new-frontier-us-rivalry-beijing-over-taiwan-strait?utm_source=rss_feed</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Black Hawk to drone: new frontier in US rivalry with Beijing over Taiwan Strait?</v>
+      </c>
+      <c r="D119" t="str">
+        <v>美中在台湾海峡的竞争或扩展到无人机领域，黑鹰直升机与无人机对抗可能成为新焦点。</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G119" t="str">
+        <v>2026-02-07T16:15:28.611Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G114"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3139,9 +3139,32 @@
         <v>2026-02-07T16:15:28.611Z</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>P0-Urgent</v>
+      </c>
+      <c r="B120" t="str">
+        <v>https://www.scmp.com/news/world/russia-central-asia/article/3342789/ukraines-zelensky-says-us-wants-deal-end-russias-war-june?utm_source=rss_feed</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Ukraine’s Zelensky says US wants deal to end Russia’s war by June</v>
+      </c>
+      <c r="D120" t="str">
+        <v>泽连斯基称美国希望在六月前达成结束俄乌战争的协议，暗示美国可能加大斡旋力度。</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G120" t="str">
+        <v>2026-02-07T18:18:40.609Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/news_2026-02-07.xlsx
+++ b/data/news_2026-02-07.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3162,9 +3162,32 @@
         <v>2026-02-07T18:18:40.609Z</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Cyprus-URGENT</v>
+      </c>
+      <c r="B121" t="str">
+        <v>https://tass.com/world/2083469</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Trump genuinely desires to settle conflict with Iran peacefully — US ambassador to Israel</v>
+      </c>
+      <c r="D121" t="str">
+        <v>美国驻以色列大使表示，特朗普真心希望和平解决与伊朗的冲突。</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121" t="str">
+        <v>urgent</v>
+      </c>
+      <c r="G121" t="str">
+        <v>2026-02-07T22:13:50.140Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G121"/>
   </ignoredErrors>
 </worksheet>
 </file>